--- a/recievers.xlsx
+++ b/recievers.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Normandy\Desktop\ITS - Spring 2023 Courses\CPRG-217\Assignment - Write Python Script in Windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11258988-EF23-4C13-A050-0BE330A31033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1D2733-628A-4CAA-9356-94282E8F0121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Events" sheetId="1" r:id="rId1"/>
-    <sheet name="Receivers" sheetId="2" r:id="rId2"/>
+    <sheet name="Receivers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>FirstName</t>
   </si>
@@ -426,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,69 +529,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9ED284-FB39-4250-8C85-D67C67D442BF}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6">
-        <v>45150</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{B71B48CF-F7AD-42E1-AD5F-C5471924A5C9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>